--- a/rsu_tax_calculator.xlsx
+++ b/rsu_tax_calculator.xlsx
@@ -476,22 +476,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Federal Tax</t>
+          <t>Federal Tax on RSU</t>
         </is>
       </c>
       <c r="B8">
-        <f>IF(B6&lt;=11000, B6*0.1, IF(B6&lt;=44725, 1100+ (B6-11000)*0.12, B6*0.22))</f>
+        <f>IF(B5&gt;0,MIN(B5-0,11600-0)*0.1,0)+IF(B5&gt;11600,MIN(B5-11600,47150-11600)*0.12,0)+IF(B5&gt;47150,MIN(B5-47150,100525-47150)*0.22,0)+IF(B5&gt;100525,MIN(B5-100525,191950-100525)*0.24,0)+IF(B5&gt;191950,MIN(B5-191950,243725-191950)*0.32,0)+IF(B5&gt;243725,MIN(B5-243725,609350-243725)*0.35,0)+IF(B5&gt;609350,(B5-609350)*0.37,0)</f>
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>California Tax</t>
+          <t>California Tax on RSU</t>
         </is>
       </c>
       <c r="B9">
-        <f>IF(B6&lt;=10000, B6*0.01, IF(B6&lt;=50000, 100+ (B6-10000)*0.02, B6*0.04))</f>
+        <f>IF(B5&gt;0,MIN(B5-0,10412-0)*0.01,0)+IF(B5&gt;10412,MIN(B5-10412,49223-10412)*0.02,0)+IF(B5&gt;49223,MIN(B5-49223,62163-49223)*0.04,0)+IF(B5&gt;62163,MIN(B5-62163,322499-62163)*0.06,0)+IF(B5&gt;322499,MIN(B5-322499,412187-322499)*0.08,0)+IF(B5&gt;412187,MIN(B5-412187,1000000-412187)*0.093,0)+IF(B5&gt;1000000,MIN(B5-1000000,1200000-1000000)*0.103,0)+IF(B5&gt;1200000,MIN(B5-1200000,1500000-1200000)*0.113,0)+IF(B5&gt;1500000,(B5-1500000)*0.123,0)</f>
         <v/>
       </c>
     </row>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>MIN(B5,168600)*0.062</f>
+        <f>MIN(B5, 168600)*0.062</f>
         <v/>
       </c>
     </row>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>B5*0.0145</f>
+        <f>B5*0.0145 + IF(B6&gt;200000,(B6-200000)*0.009, 0)</f>
         <v/>
       </c>
     </row>
